--- a/Nova Planilha DP.xlsx
+++ b/Nova Planilha DP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\projetos\app folha\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micro\Documents\GitHub\intelig-ncia-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AAAA5D-54E6-4BEA-A509-3644D1BDD0C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7B36EE-C15B-44B7-BC9D-CCF40EA07BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2700" windowWidth="29040" windowHeight="15720" xr2:uid="{3021E2C6-A2FA-449C-AA56-3B5F4B755610}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3021E2C6-A2FA-449C-AA56-3B5F4B755610}"/>
   </bookViews>
   <sheets>
     <sheet name="iob8DA6" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>COLABORADOR</t>
   </si>
   <si>
     <t>MATRICULA</t>
   </si>
+  <si>
+    <t/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot; R$ &quot;#.##0.00&quot; &quot;;&quot;-R$ &quot;#.##0.00&quot; &quot;;&quot; R$ -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
-    <numFmt numFmtId="165" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="hh&quot;:&quot;mm"/>
-    <numFmt numFmtId="168" formatCode="hh&quot;:&quot;mm&quot;:&quot;ss"/>
-    <numFmt numFmtId="169" formatCode="&quot;R$ &quot;#,##0.00;[Red]&quot;-R$ &quot;#,##0.00"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,45 +217,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial1"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +414,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF666666"/>
         <bgColor rgb="FF666666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -593,17 +555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,7 +629,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -681,78 +637,59 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="26" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
-    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Excel Built-in Currency" xfId="42" xr:uid="{3C336966-77AA-4517-8D9F-61E4BF1CB356}"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Moeda 10" xfId="61" xr:uid="{C2B039D1-7FC8-4D3D-80C4-556FE3393111}"/>
     <cellStyle name="Moeda 11" xfId="62" xr:uid="{11A94CC6-CB03-40F8-ADFA-16973BB15765}"/>
     <cellStyle name="Moeda 2" xfId="49" xr:uid="{5C4F89B6-9796-4D41-A9E5-A0AE51BA7014}"/>
@@ -766,26 +703,20 @@
     <cellStyle name="Moeda 7" xfId="53" xr:uid="{961E0F84-0774-470E-AD8E-B6C59326DB33}"/>
     <cellStyle name="Moeda 8" xfId="55" xr:uid="{CAC30245-2B5A-434A-AC6F-35202ACC5A74}"/>
     <cellStyle name="Moeda 9" xfId="58" xr:uid="{7F721593-F458-47D5-AC45-D0B0A171B04F}"/>
-    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="43" xr:uid="{03B020B7-6357-427B-B61D-0FD838E3CC43}"/>
     <cellStyle name="Normal 3" xfId="44" xr:uid="{1184E123-CDC8-47C4-9D73-813610DF4E57}"/>
     <cellStyle name="Normal 4" xfId="54" xr:uid="{242153F4-C3F5-4ACD-8DA8-3A865190DBBF}"/>
-    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula 2" xfId="48" xr:uid="{FC647F64-3CEC-4D45-B85B-CD20F93AE16B}"/>
     <cellStyle name="Vírgula 2 2" xfId="59" xr:uid="{A86517B4-A13C-4702-96A4-EF6F81E0496D}"/>
     <cellStyle name="Vírgula 3" xfId="45" xr:uid="{29B7F0E3-F39E-4104-9041-1DA001E1E6EE}"/>
     <cellStyle name="Vírgula 4" xfId="56" xr:uid="{BB424ADC-1BDB-474D-909F-A4AB773C0FEF}"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,7 +732,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1097,261 +1028,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F1B4F-51F2-48B8-A03E-24D62E83EFA1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.109375" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4">
-        <v>565</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4">
-        <v>205</v>
-      </c>
-      <c r="E1" s="5">
+        <v>957</v>
+      </c>
+      <c r="E1" s="4">
+        <v>64</v>
+      </c>
+      <c r="F1" s="4">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4">
         <v>225</v>
       </c>
-      <c r="F1" s="5">
-        <v>208</v>
-      </c>
-      <c r="G1" s="5">
-        <v>209</v>
-      </c>
-      <c r="H1" s="5">
-        <v>479</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="6">
-        <v>6</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8">
-        <v>0</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8">
-        <f>153.5+40</f>
-        <v>193.5</v>
+        <v>41</v>
+      </c>
+      <c r="C2" s="5">
+        <v>5.3520833333333337</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="G2" s="6">
+        <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
-        <v>24</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
-        <v>200</v>
-      </c>
-      <c r="F3" s="11">
-        <v>46.98</v>
-      </c>
-      <c r="G3" s="11">
-        <v>104</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.6062500000000002</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3.0555555555555555E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="G3" s="6">
+        <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>15</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="12">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="E4" s="11">
-        <v>200</v>
-      </c>
-      <c r="F4" s="11">
-        <v>103.86</v>
-      </c>
-      <c r="G4" s="13">
-        <v>104</v>
-      </c>
-      <c r="H4" s="8">
-        <v>51.18</v>
-      </c>
-      <c r="I4" s="3"/>
+        <v>39</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7.9625000000000004</v>
+      </c>
+      <c r="D4" s="5">
+        <v>6.458333333333334E-2</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="G4" s="6">
+        <v>350</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>29</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="12">
-        <v>0.38750000000000001</v>
-      </c>
-      <c r="E5" s="11">
-        <v>200</v>
-      </c>
-      <c r="F5" s="11">
-        <v>153.41</v>
-      </c>
-      <c r="G5" s="8">
-        <v>104</v>
-      </c>
-      <c r="H5" s="8">
-        <f>40+51.18</f>
-        <v>91.18</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6.6881944444444441</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.4305555555555555E-2</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="G5" s="6">
+        <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>34</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="12">
-        <v>0.28333333333333333</v>
-      </c>
-      <c r="E6" s="11">
-        <v>200</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8">
-        <f>40+51.18</f>
-        <v>91.18</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C6" s="5">
+        <v>7.6624999999999996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.14166666666666666</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="G6" s="6">
+        <v>600</v>
+      </c>
+      <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:9" ht="15">
-      <c r="B7" s="6">
-        <v>36</v>
-      </c>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
-      <c r="D7" s="12">
-        <v>0.37638888888888888</v>
-      </c>
-      <c r="E7" s="11">
-        <v>200</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:9" ht="15">
-      <c r="B8" s="14">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="9"/>
-      <c r="D8" s="15">
-        <v>0.375</v>
-      </c>
-      <c r="E8" s="11">
-        <v>200</v>
-      </c>
-      <c r="F8" s="11">
-        <v>181.4</v>
-      </c>
-      <c r="G8" s="8">
-        <v>104</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:9" ht="15">
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16">
-        <v>1200</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="11">
-        <v>300</v>
-      </c>
-      <c r="F9" s="8">
-        <v>221.92</v>
-      </c>
-      <c r="G9" s="11">
-        <v>104</v>
-      </c>
-      <c r="H9" s="8">
-        <f>40+51.18</f>
-        <v>91.18</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:9" ht="15">
-      <c r="B10" s="6">
-        <v>31</v>
-      </c>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="9"/>
-      <c r="D10" s="15">
-        <v>0.37638888888888888</v>
-      </c>
-      <c r="E10" s="11">
-        <v>200</v>
-      </c>
-      <c r="F10" s="8">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <f>40+51.18</f>
-        <v>91.18</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" ht="15">
-      <c r="B11" s="6">
-        <v>37</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="15">
-        <v>0.41875000000000001</v>
-      </c>
-      <c r="E11" s="11">
-        <v>200</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{FD5F1B4F-51F2-48B8-A03E-24D62E83EFA1}"/>

--- a/Nova Planilha DP.xlsx
+++ b/Nova Planilha DP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micro\Documents\GitHub\intelig-ncia-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7B36EE-C15B-44B7-BC9D-CCF40EA07BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547BCF5-DB0D-49C1-9046-1639C532DAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3021E2C6-A2FA-449C-AA56-3B5F4B755610}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>COLABORADOR</t>
   </si>
@@ -45,6 +45,21 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>53:17</t>
+  </si>
+  <si>
+    <t>07:07</t>
+  </si>
+  <si>
+    <t>97:52</t>
+  </si>
+  <si>
+    <t>60:20</t>
+  </si>
+  <si>
+    <t>218:38</t>
   </si>
 </sst>
 </file>
@@ -417,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -558,6 +573,21 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -629,7 +659,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -643,15 +673,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="63">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1028,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F1B4F-51F2-48B8-A03E-24D62E83EFA1}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1040,10 +1065,9 @@
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1051,139 +1075,129 @@
         <v>1</v>
       </c>
       <c r="C1" s="4">
+        <v>395</v>
+      </c>
+      <c r="D1" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="6">
+        <v>123</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>130</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4">
-        <v>957</v>
-      </c>
-      <c r="E1" s="4">
-        <v>64</v>
-      </c>
-      <c r="F1" s="4">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="6">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.3520833333333337</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5">
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="G2" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>37</v>
-      </c>
-      <c r="C3" s="5">
-        <v>7.6062500000000002</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3.0555555555555555E-2</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.30555555555555558</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="G3" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D3" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" s="6">
-        <v>39</v>
-      </c>
-      <c r="C4" s="5">
-        <v>7.9625000000000004</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6.458333333333334E-2</v>
-      </c>
-      <c r="E4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="5">
-        <v>1.2222222222222223</v>
-      </c>
-      <c r="G4" s="6">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D4" s="6">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6">
-        <v>36</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6.6881944444444441</v>
-      </c>
-      <c r="D5" s="5">
-        <v>7.4305555555555555E-2</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5">
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="G5" s="6">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
-        <v>32</v>
-      </c>
-      <c r="C6" s="5">
-        <v>7.6624999999999996</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0.14166666666666666</v>
-      </c>
-      <c r="E6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>118</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>78</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="5">
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="G6" s="6">
-        <v>600</v>
-      </c>
-      <c r="L6" s="8"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="9"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G15" s="7"/>
+      <c r="D8" s="6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>135</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>117</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>126</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{FD5F1B4F-51F2-48B8-A03E-24D62E83EFA1}"/>

--- a/Nova Planilha DP.xlsx
+++ b/Nova Planilha DP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micro\Documents\GitHub\intelig-ncia-de-dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547BCF5-DB0D-49C1-9046-1639C532DAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C1A46A-2A4C-442C-96DA-2B801A2DE244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{3021E2C6-A2FA-449C-AA56-3B5F4B755610}"/>
+    <workbookView xWindow="4710" yWindow="2115" windowWidth="18000" windowHeight="9270" xr2:uid="{3021E2C6-A2FA-449C-AA56-3B5F4B755610}"/>
   </bookViews>
   <sheets>
     <sheet name="iob8DA6" sheetId="1" r:id="rId1"/>
@@ -36,42 +36,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>COLABORADOR</t>
   </si>
   <si>
-    <t>MATRICULA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>53:17</t>
-  </si>
-  <si>
-    <t>07:07</t>
-  </si>
-  <si>
-    <t>97:52</t>
-  </si>
-  <si>
-    <t>60:20</t>
-  </si>
-  <si>
-    <t>218:38</t>
+    <t>NOME FUNCIONÁRIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot; R$ &quot;#.##0.00&quot; &quot;;&quot;-R$ &quot;#.##0.00&quot; &quot;;&quot; R$ -&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot; R$ &quot;* #,##0.00&quot; &quot;;&quot;-R$ &quot;* #,##0.00&quot; &quot;;&quot; R$ &quot;* &quot;-&quot;00&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="168" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +219,101 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,12 +501,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF666666"/>
-        <bgColor rgb="FF666666"/>
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -560,26 +682,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -593,8 +695,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -658,8 +775,48 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,18 +824,33 @@
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="46" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="36" fillId="41" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="42" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="11" xfId="102" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="103">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -697,6 +869,10 @@
     <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent" xfId="70" xr:uid="{E39D4E76-9509-45AE-920D-E55233ABAB90}"/>
+    <cellStyle name="Accent 1" xfId="71" xr:uid="{CFB2A7A4-B2EF-45D4-A50B-C8F408F1DA1C}"/>
+    <cellStyle name="Accent 2" xfId="72" xr:uid="{EB029190-A54B-4F20-AE8A-0FBD977F41AA}"/>
+    <cellStyle name="Accent 3" xfId="73" xr:uid="{9D0ABBE8-1F02-49AC-B071-6C533B5C6703}"/>
     <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
     <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
     <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
@@ -704,43 +880,79 @@
     <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Bad 2" xfId="67" xr:uid="{8F6F8F14-0211-4FD2-8F77-1A940711E6CF}"/>
     <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Currency 2" xfId="102" xr:uid="{8BA4789F-B218-4DD0-A87F-EEE499B6F2A6}"/>
+    <cellStyle name="Default" xfId="74" xr:uid="{61A31D88-2E5B-4A9B-B436-54ED6B3C7847}"/>
+    <cellStyle name="Error" xfId="75" xr:uid="{96024B1F-F2F8-4A87-8CA8-B1C12F102B79}"/>
     <cellStyle name="Excel Built-in Currency" xfId="42" xr:uid="{3C336966-77AA-4517-8D9F-61E4BF1CB356}"/>
+    <cellStyle name="Excel Built-in Currency 2" xfId="76" xr:uid="{8C2065F4-710F-49F8-B59B-238DCB97969A}"/>
     <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Footnote" xfId="77" xr:uid="{2F3D0C63-44FE-4580-94A0-987494B830B6}"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Good 2" xfId="66" xr:uid="{6B9E7B74-1291-4DDD-AE1C-17CD80935C02}"/>
+    <cellStyle name="Heading" xfId="78" xr:uid="{F0679626-EC3F-4E0E-ADF7-0E06B84D1EED}"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 1 2" xfId="64" xr:uid="{587B4239-14D8-4DE9-AC1B-76E6F8EE67E7}"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 2 2" xfId="65" xr:uid="{FA2A52BC-0843-4A26-BA55-1851C9780507}"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="79" xr:uid="{57A0DD86-5AB1-4A61-A3E9-F0120E2D38ED}"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Moeda 10" xfId="61" xr:uid="{C2B039D1-7FC8-4D3D-80C4-556FE3393111}"/>
+    <cellStyle name="Moeda 10 2" xfId="100" xr:uid="{149DD91F-A2B6-437B-B7FD-F9EEE08F13D3}"/>
     <cellStyle name="Moeda 11" xfId="62" xr:uid="{11A94CC6-CB03-40F8-ADFA-16973BB15765}"/>
+    <cellStyle name="Moeda 11 2" xfId="101" xr:uid="{0C11FB45-6047-4EEE-9AC0-E95A554A40B6}"/>
     <cellStyle name="Moeda 2" xfId="49" xr:uid="{5C4F89B6-9796-4D41-A9E5-A0AE51BA7014}"/>
     <cellStyle name="Moeda 2 2" xfId="60" xr:uid="{23134592-2926-4F8D-B6BF-EAB11333CFBF}"/>
+    <cellStyle name="Moeda 2 2 2" xfId="99" xr:uid="{193B8957-F168-4A9E-A90B-0BF525802BA7}"/>
+    <cellStyle name="Moeda 2 3" xfId="88" xr:uid="{627FC2A9-D06B-4AE3-9000-33376A7130D1}"/>
     <cellStyle name="Moeda 3" xfId="47" xr:uid="{494AF84C-45C1-4415-94AA-372532F1C969}"/>
+    <cellStyle name="Moeda 3 2" xfId="86" xr:uid="{F34CCB9A-E6E3-4315-90C3-78461D257F10}"/>
     <cellStyle name="Moeda 4" xfId="50" xr:uid="{C56EE96D-2795-4A0E-A866-5A6AEAF8A04D}"/>
+    <cellStyle name="Moeda 4 2" xfId="89" xr:uid="{01F9FE20-067B-4230-8E8C-E5FC45647BB6}"/>
     <cellStyle name="Moeda 4 3" xfId="46" xr:uid="{441F9B9A-8D11-4A9B-8E5F-0F715E01F51B}"/>
     <cellStyle name="Moeda 4 3 2" xfId="57" xr:uid="{226751DF-02AE-448A-A2F1-DC25E8DDB820}"/>
+    <cellStyle name="Moeda 4 3 2 2" xfId="96" xr:uid="{8892F637-6F05-4F7C-B86D-C66E0AA70496}"/>
+    <cellStyle name="Moeda 4 3 3" xfId="85" xr:uid="{54F1BAB1-0BBC-4098-9D45-EC7F9980E6D7}"/>
     <cellStyle name="Moeda 5" xfId="51" xr:uid="{760E809B-2973-488A-B1AD-29E4779F9F30}"/>
+    <cellStyle name="Moeda 5 2" xfId="90" xr:uid="{70840EDF-5053-44BE-A0AE-0F19DAFDB4C5}"/>
     <cellStyle name="Moeda 6" xfId="52" xr:uid="{F22139D6-CE12-488E-9493-749EE25031BA}"/>
+    <cellStyle name="Moeda 6 2" xfId="91" xr:uid="{56CE9240-E673-4D0D-BB27-189E1994968C}"/>
     <cellStyle name="Moeda 7" xfId="53" xr:uid="{961E0F84-0774-470E-AD8E-B6C59326DB33}"/>
+    <cellStyle name="Moeda 7 2" xfId="92" xr:uid="{E64BF611-6D9E-4EB9-ACA0-D2E20F84C1E5}"/>
     <cellStyle name="Moeda 8" xfId="55" xr:uid="{CAC30245-2B5A-434A-AC6F-35202ACC5A74}"/>
+    <cellStyle name="Moeda 8 2" xfId="94" xr:uid="{29A90EBE-0BB4-4421-988E-51487D0000CC}"/>
     <cellStyle name="Moeda 9" xfId="58" xr:uid="{7F721593-F458-47D5-AC45-D0B0A171B04F}"/>
+    <cellStyle name="Moeda 9 2" xfId="97" xr:uid="{E2F13C2D-EC63-4C07-A1A9-3BABB18B4893}"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="68" xr:uid="{CC22FF91-03E6-4611-BC32-B1B964916A8A}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="43" xr:uid="{03B020B7-6357-427B-B61D-0FD838E3CC43}"/>
     <cellStyle name="Normal 3" xfId="44" xr:uid="{1184E123-CDC8-47C4-9D73-813610DF4E57}"/>
     <cellStyle name="Normal 4" xfId="54" xr:uid="{242153F4-C3F5-4ACD-8DA8-3A865190DBBF}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{A20DC50F-9239-432F-99C0-1891850F5CFD}"/>
+    <cellStyle name="Normal 5" xfId="63" xr:uid="{5DEC64FA-4FE7-430D-AC62-C0D52C43708F}"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note 2" xfId="69" xr:uid="{097B76A9-96F3-4191-932B-4D0351C50F58}"/>
     <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Result" xfId="80" xr:uid="{80C27425-D7C9-4D8F-ADED-3ACDC0E537D6}"/>
+    <cellStyle name="Status" xfId="81" xr:uid="{4BE78E24-DB6F-40F5-B7A8-33B7B18986FC}"/>
+    <cellStyle name="Text" xfId="82" xr:uid="{BD6A568D-6332-4E33-AD24-1F0FC01129EB}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vírgula 2" xfId="48" xr:uid="{FC647F64-3CEC-4D45-B85B-CD20F93AE16B}"/>
     <cellStyle name="Vírgula 2 2" xfId="59" xr:uid="{A86517B4-A13C-4702-96A4-EF6F81E0496D}"/>
+    <cellStyle name="Vírgula 2 2 2" xfId="98" xr:uid="{AA3791DA-9D1E-4EF8-8EF4-FD907BADE506}"/>
+    <cellStyle name="Vírgula 2 3" xfId="87" xr:uid="{3F084D49-685C-4B0A-BA2F-B20ACD984615}"/>
     <cellStyle name="Vírgula 3" xfId="45" xr:uid="{29B7F0E3-F39E-4104-9041-1DA001E1E6EE}"/>
+    <cellStyle name="Vírgula 3 2" xfId="84" xr:uid="{431CEC8A-71BB-42AA-9A0D-84E578EEFADC}"/>
     <cellStyle name="Vírgula 4" xfId="56" xr:uid="{BB424ADC-1BDB-474D-909F-A4AB773C0FEF}"/>
+    <cellStyle name="Vírgula 4 2" xfId="95" xr:uid="{C891A0D5-9B04-4BA0-91A2-E3C883330555}"/>
+    <cellStyle name="Warning" xfId="83" xr:uid="{A8EE230E-93DF-49B0-A6BD-35FD6BFD58EB}"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1053,151 +1265,496 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD5F1B4F-51F2-48B8-A03E-24D62E83EFA1}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="18.75">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4">
-        <v>395</v>
-      </c>
-      <c r="D1" s="4">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="12">
+        <v>241</v>
+      </c>
+      <c r="D1" s="12">
+        <v>523</v>
+      </c>
+      <c r="E1" s="12">
+        <v>212</v>
+      </c>
+      <c r="F1" s="12">
+        <v>226</v>
+      </c>
+      <c r="G1" s="12">
+        <v>205</v>
+      </c>
+      <c r="H1" s="12">
+        <v>225</v>
+      </c>
+      <c r="I1" s="12">
+        <v>479</v>
+      </c>
+      <c r="J1" s="13">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="B2" s="6">
-        <v>123</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="6">
-        <v>130</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="6">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="6">
-        <v>83</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="6">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
-        <v>134</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="6">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6">
-        <v>105</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6">
-        <v>118</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+        <v>113</v>
+      </c>
+      <c r="C2" s="9">
+        <v>150</v>
+      </c>
+      <c r="D2" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E2" s="9">
+        <v>150</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="9">
+        <v>500</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9">
+        <v>1018.99</v>
+      </c>
+      <c r="E3" s="9">
+        <v>200</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="9">
+        <v>650</v>
+      </c>
+      <c r="I3" s="9">
+        <v>67</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="7">
+        <v>98</v>
+      </c>
+      <c r="C4" s="9">
+        <v>230</v>
+      </c>
+      <c r="D4" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E4" s="9">
+        <v>270</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="9">
+        <v>800</v>
+      </c>
+      <c r="I4" s="9">
+        <v>384.5</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" s="8">
+        <v>97</v>
+      </c>
+      <c r="C5" s="9">
+        <v>180</v>
+      </c>
+      <c r="D5" s="9">
+        <v>645.6</v>
+      </c>
+      <c r="E5" s="9">
+        <v>350</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.40416666666666667</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
+        <v>468.69</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="7">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1279</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>1279</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="9">
+        <v>4500</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="8">
+        <v>109</v>
+      </c>
+      <c r="C7" s="9">
+        <v>230</v>
+      </c>
+      <c r="D7" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E7" s="9">
+        <v>200</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="9">
+        <v>400</v>
+      </c>
+      <c r="I7" s="9">
+        <v>190</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="7">
+        <v>70</v>
+      </c>
+      <c r="C8" s="11">
+        <v>430</v>
+      </c>
+      <c r="D8" s="9">
+        <v>408.5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>400</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="9">
+        <v>600</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9">
+        <v>330</v>
+      </c>
+      <c r="D9" s="9">
+        <v>408.5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>300</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="9">
+        <v>600</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" s="7">
+        <v>95</v>
+      </c>
+      <c r="C10" s="9">
+        <v>180</v>
+      </c>
+      <c r="D10" s="9">
+        <v>455.85</v>
+      </c>
+      <c r="E10" s="9">
+        <v>150</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="9">
+        <v>700</v>
+      </c>
+      <c r="I10" s="9">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" s="7">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9">
+        <v>200</v>
+      </c>
+      <c r="D11" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E11" s="9">
+        <v>200</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="9">
+        <v>600</v>
+      </c>
+      <c r="I11" s="9">
+        <v>578.4</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="7">
+        <v>93</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9">
+        <v>1511.99</v>
+      </c>
+      <c r="E12" s="9">
+        <v>350</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9">
+        <v>47.2</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="8">
+        <v>112</v>
+      </c>
+      <c r="C13" s="9">
+        <v>200</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9">
+        <v>200</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="8">
+        <v>25</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.46736111111111112</v>
+      </c>
+      <c r="H14" s="9">
+        <v>500</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="7">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9">
+        <v>230</v>
+      </c>
+      <c r="D15" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E15" s="9">
+        <v>200</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9">
+        <v>580</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="7">
         <v>78</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="6">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
-        <v>135</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="6">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6">
-        <v>117</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6">
-        <v>126</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="6">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9">
+        <v>150</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.13472222222222222</v>
+      </c>
+      <c r="H16" s="9">
+        <v>600</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="7">
+        <v>114</v>
+      </c>
+      <c r="C17" s="9">
+        <v>150</v>
+      </c>
+      <c r="D17" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E17" s="9">
+        <v>150</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="9">
+        <v>500</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="7">
+        <v>108</v>
+      </c>
+      <c r="C18" s="9">
+        <v>230</v>
+      </c>
+      <c r="D18" s="9">
+        <v>175.07</v>
+      </c>
+      <c r="E18" s="9">
+        <v>200</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="9">
+        <v>500</v>
+      </c>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="7">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="7">
+        <v>59</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="9">
+        <v>121.67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{FD5F1B4F-51F2-48B8-A03E-24D62E83EFA1}"/>
